--- a/data/donnees_insee.xlsx
+++ b/data/donnees_insee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Emploi LA" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,6 +44,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">recalculées</t>
         </r>
@@ -92,6 +93,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve"> soit 1/5e</t>
         </r>
@@ -114,6 +116,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve"> soit 1/5e</t>
         </r>
@@ -136,6 +139,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">recalculées</t>
         </r>
@@ -146,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="115">
   <si>
     <t xml:space="preserve">Emploi salarié total</t>
   </si>
@@ -455,9 +459,6 @@
   </si>
   <si>
     <t xml:space="preserve">Formules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpes Maritimes</t>
   </si>
   <si>
     <t xml:space="preserve">France hors Mayotte </t>
@@ -905,8 +906,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.30030959752322"/>
-          <c:y val="0.0353569046030687"/>
+          <c:x val="0.300358822073744"/>
+          <c:y val="0.0353608362059379"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1247,11 +1248,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="49081368"/>
-        <c:axId val="77348259"/>
+        <c:axId val="88203350"/>
+        <c:axId val="15045489"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49081368"/>
+        <c:axId val="88203350"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,7 +1280,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77348259"/>
+        <c:crossAx val="15045489"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1287,7 +1288,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77348259"/>
+        <c:axId val="15045489"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1324,7 +1325,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49081368"/>
+        <c:crossAx val="88203350"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1383,9 +1384,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>100</xdr:col>
-      <xdr:colOff>127800</xdr:colOff>
+      <xdr:colOff>127440</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1393,8 +1394,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="78477120" y="2813400"/>
-        <a:ext cx="5813640" cy="3237480"/>
+        <a:off x="78528960" y="2813400"/>
+        <a:ext cx="5818680" cy="3237120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1418,11 +1419,11 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2055,7 +2056,7 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.33"/>
@@ -3142,11 +3143,11 @@
   </sheetPr>
   <dimension ref="A1:CH8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="918" style="0" width="11.52"/>
@@ -3444,7 +3445,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>10.2</v>
@@ -3724,7 +3725,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.58"/>
   </cols>
@@ -3991,7 +3992,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>7.8</v>
@@ -4267,11 +4268,11 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="57.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.06"/>
@@ -4279,15 +4280,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>105</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="24" t="n">
         <v>44952</v>
@@ -4295,7 +4296,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="24" t="n">
         <v>44952</v>
@@ -4303,7 +4304,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="24" t="n">
         <v>45027</v>
@@ -4311,7 +4312,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="24" t="n">
         <v>45023</v>
@@ -4319,7 +4320,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="24" t="n">
         <v>44952</v>
@@ -4327,7 +4328,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="24" t="n">
         <v>44952</v>
@@ -4335,7 +4336,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="24" t="n">
         <v>44952</v>
@@ -4343,7 +4344,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" s="24" t="n">
         <v>44952</v>
@@ -4351,7 +4352,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="24" t="n">
         <v>44952</v>
@@ -4382,7 +4383,7 @@
       <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.55"/>
   </cols>
@@ -5013,9 +5014,9 @@
       <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.4"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5647,7 +5648,7 @@
       <selection pane="topLeft" activeCell="CH8" activeCellId="0" sqref="CH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.33"/>
@@ -6291,7 +6292,7 @@
       <selection pane="topLeft" activeCell="BV9" activeCellId="0" sqref="BV9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="918" style="0" width="11.52"/>
@@ -6869,7 +6870,7 @@
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.88"/>
   </cols>
@@ -7503,7 +7504,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.14"/>
   </cols>
@@ -8138,7 +8139,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.87"/>
   </cols>
@@ -8773,7 +8774,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.33"/>

--- a/data/donnees_insee.xlsx
+++ b/data/donnees_insee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Emploi LA" sheetId="1" state="visible" r:id="rId2"/>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="116">
   <si>
     <t xml:space="preserve">Emploi salarié total</t>
   </si>
@@ -495,6 +495,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.insee.fr/fr/statistiques/serie/010760261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.insee.fr/fr/statistiques/serie/010759955</t>
   </si>
 </sst>
 </file>
@@ -906,8 +909,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.300358822073744"/>
-          <c:y val="0.0353608362059379"/>
+          <c:x val="0.300432365657813"/>
+          <c:y val="0.035364768683274"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1248,11 +1251,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="88203350"/>
-        <c:axId val="15045489"/>
+        <c:axId val="91969723"/>
+        <c:axId val="25597113"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88203350"/>
+        <c:axId val="91969723"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1280,7 +1283,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15045489"/>
+        <c:crossAx val="25597113"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1288,7 +1291,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15045489"/>
+        <c:axId val="25597113"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1325,7 +1328,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88203350"/>
+        <c:crossAx val="91969723"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1384,9 +1387,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>100</xdr:col>
-      <xdr:colOff>127440</xdr:colOff>
+      <xdr:colOff>127080</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>17640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1394,8 +1397,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="78528960" y="2813400"/>
-        <a:ext cx="5818680" cy="3237120"/>
+        <a:off x="78633360" y="2813400"/>
+        <a:ext cx="5828040" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1419,7 +1422,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.56"/>
@@ -2056,7 +2059,7 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.33"/>
@@ -3143,11 +3146,11 @@
   </sheetPr>
   <dimension ref="A1:CH8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="918" style="0" width="11.52"/>
@@ -3725,7 +3728,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.58"/>
   </cols>
@@ -4268,11 +4271,11 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="57.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.06"/>
@@ -4355,6 +4358,14 @@
         <v>114</v>
       </c>
       <c r="B10" s="24" t="n">
+        <v>44952</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="24" t="n">
         <v>44952</v>
       </c>
     </row>
@@ -4383,7 +4394,7 @@
       <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.55"/>
   </cols>
@@ -5014,7 +5025,7 @@
       <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.4"/>
   </cols>
@@ -5648,7 +5659,7 @@
       <selection pane="topLeft" activeCell="CH8" activeCellId="0" sqref="CH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.33"/>
@@ -6292,7 +6303,7 @@
       <selection pane="topLeft" activeCell="BV9" activeCellId="0" sqref="BV9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="918" style="0" width="11.52"/>
@@ -6870,7 +6881,7 @@
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.88"/>
   </cols>
@@ -7504,7 +7515,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.14"/>
   </cols>
@@ -8139,7 +8150,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.87"/>
   </cols>
@@ -8774,7 +8785,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.33"/>

--- a/data/donnees_insee.xlsx
+++ b/data/donnees_insee.xlsx
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="118">
   <si>
     <t xml:space="preserve">Emploi salarié total</t>
   </si>
@@ -498,6 +498,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.insee.fr/fr/statistiques/serie/010759955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.insee.fr/fr/statistiques/serie/010760300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.insee.fr/fr/statistiques/serie/010759801</t>
   </si>
 </sst>
 </file>
@@ -702,7 +708,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -807,6 +813,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -879,7 +889,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -909,8 +919,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.300432365657813"/>
-          <c:y val="0.035364768683274"/>
+          <c:x val="0.300481362626512"/>
+          <c:y val="0.0353687020353687"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1251,11 +1261,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="91969723"/>
-        <c:axId val="25597113"/>
+        <c:axId val="91986482"/>
+        <c:axId val="53941213"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91969723"/>
+        <c:axId val="91986482"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,7 +1293,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25597113"/>
+        <c:crossAx val="53941213"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1291,7 +1301,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="25597113"/>
+        <c:axId val="53941213"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1328,7 +1338,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91969723"/>
+        <c:crossAx val="91986482"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1387,9 +1397,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>100</xdr:col>
-      <xdr:colOff>127080</xdr:colOff>
+      <xdr:colOff>126720</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1397,8 +1407,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="78633360" y="2813400"/>
-        <a:ext cx="5828040" cy="3236760"/>
+        <a:off x="78685200" y="2813400"/>
+        <a:ext cx="5833080" cy="3236400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1419,10 +1429,10 @@
   <dimension ref="A1:CH8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="1" sqref="A14:B14 B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.56"/>
@@ -2056,10 +2066,10 @@
   <dimension ref="A1:CH42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="1" sqref="A14:B14 A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.33"/>
@@ -3147,10 +3157,10 @@
   <dimension ref="A1:CH8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A14:B14 A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="918" style="0" width="11.52"/>
@@ -3725,10 +3735,10 @@
   <dimension ref="A7:CH8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="A14:B14 A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.58"/>
   </cols>
@@ -4269,15 +4279,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="57.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="179.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.06"/>
   </cols>
   <sheetData>
@@ -4370,7 +4380,23 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="25"/>
+      <c r="A12" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="25" t="n">
+        <v>44952</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="24" t="n">
+        <v>44952</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="26"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4391,10 +4417,10 @@
   <dimension ref="A1:CH8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
+      <selection pane="topLeft" activeCell="I21" activeCellId="1" sqref="A14:B14 I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.55"/>
   </cols>
@@ -5022,10 +5048,10 @@
   <dimension ref="A1:CH8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="1" sqref="A14:B14 C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.4"/>
   </cols>
@@ -5656,10 +5682,10 @@
   <dimension ref="A1:CH8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BX1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CH8" activeCellId="0" sqref="CH8"/>
+      <selection pane="topLeft" activeCell="CH8" activeCellId="1" sqref="A14:B14 CH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.33"/>
@@ -6300,10 +6326,10 @@
   <dimension ref="A1:CH8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BV9" activeCellId="0" sqref="BV9"/>
+      <selection pane="topLeft" activeCell="BV9" activeCellId="1" sqref="A14:B14 BV9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="918" style="0" width="11.52"/>
@@ -6878,10 +6904,10 @@
   <dimension ref="A1:CH8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="1" sqref="A14:B14 C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.88"/>
   </cols>
@@ -7512,10 +7538,10 @@
   <dimension ref="A1:CH8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="1" sqref="A14:B14 A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.14"/>
   </cols>
@@ -8147,10 +8173,10 @@
   <dimension ref="A1:CH8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A14:B14 A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.87"/>
   </cols>
@@ -8782,10 +8808,10 @@
   <dimension ref="A1:CH41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A14:B14 A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.33"/>
